--- a/Excel Files/Scenario 17/Scenario 17_TC033/expectedCustomerOrder.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_TC033/expectedCustomerOrder.xlsx
@@ -324,7 +324,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>cs1701-2310001</t>
+    <t>cs1705-2310001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -336,13 +336,13 @@
     <t>Ten Day</t>
   </si>
   <si>
-    <t>21 Oct 2023 - 31 Oct 2023</t>
+    <t>01 Nov 2023 - 10 Nov 2023</t>
   </si>
   <si>
     <t>Sc17 Free - 30 Days</t>
   </si>
   <si>
-    <t>01 Nov ~ 10 Nov</t>
+    <t>11 Nov ~ 20 Nov</t>
   </si>
   <si>
     <t>FC Qty 1</t>
@@ -357,7 +357,7 @@
     <t>b00001</t>
   </si>
   <si>
-    <t>ss1701-2310001</t>
+    <t>ss1705-2310001</t>
   </si>
   <si>
     <t>PC</t>
@@ -378,46 +378,46 @@
     <t>b00002</t>
   </si>
   <si>
+    <t>scenario1720230604003</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-003</t>
+  </si>
+  <si>
+    <t>b00003</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>scenario1720230604004</t>
+  </si>
+  <si>
+    <t>PK-CUS-scenario17-20230604-004</t>
+  </si>
+  <si>
+    <t>b00004</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
     <t>scenario1720230604005</t>
   </si>
   <si>
     <t>PK-CUS-scenario17-20230604-005</t>
   </si>
   <si>
-    <t>b00004</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
-    <t>scenario1720230604003</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-003</t>
-  </si>
-  <si>
-    <t>b00003</t>
-  </si>
-  <si>
-    <t>CRT</t>
-  </si>
-  <si>
-    <t>scenario1720230604004</t>
-  </si>
-  <si>
-    <t>PK-CUS-scenario17-20230604-004</t>
-  </si>
-  <si>
-    <t>BOX</t>
-  </si>
-  <si>
     <t>AUTHORIZATION:</t>
   </si>
   <si>
     <t>X Electronically Approved: Signature Available upon Request</t>
   </si>
   <si>
-    <t>CO No.:cs1701-2310001</t>
+    <t>CO No.:cs1705-2310001</t>
   </si>
 </sst>
 </file>
@@ -9926,7 +9926,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45217.0</v>
+        <v>45224.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45218.0</v>
+        <v>45224.0</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -10191,22 +10191,22 @@
         <v>10.0</v>
       </c>
       <c r="I26" s="42" t="n">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>110</v>
       </c>
       <c r="K26" s="47" t="n">
-        <v>100.68</v>
+        <v>10.01</v>
       </c>
       <c r="L26" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M26" s="47" t="n">
-        <v>100680.0</v>
+        <v>9009.0</v>
       </c>
       <c r="N26" s="42" t="n">
-        <v>1000.0</v>
+        <v>800.0</v>
       </c>
       <c r="O26" s="27" t="s">
         <v>103</v>
@@ -10238,22 +10238,22 @@
         <v>10.0</v>
       </c>
       <c r="I27" s="42" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>114</v>
       </c>
       <c r="K27" s="47" t="n">
-        <v>10.01</v>
+        <v>10.0</v>
       </c>
       <c r="L27" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M27" s="47" t="n">
-        <v>9009.0</v>
+        <v>15000.0</v>
       </c>
       <c r="N27" s="42" t="n">
-        <v>800.0</v>
+        <v>1600.0</v>
       </c>
       <c r="O27" s="27" t="s">
         <v>103</v>
@@ -10270,7 +10270,7 @@
         <v>116</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>100</v>
@@ -10285,22 +10285,22 @@
         <v>10.0</v>
       </c>
       <c r="I28" s="42" t="n">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>117</v>
       </c>
       <c r="K28" s="47" t="n">
-        <v>10.0</v>
+        <v>100.68</v>
       </c>
       <c r="L28" s="27" t="s">
         <v>102</v>
       </c>
       <c r="M28" s="47" t="n">
-        <v>15000.0</v>
+        <v>100680.0</v>
       </c>
       <c r="N28" s="42" t="n">
-        <v>1600.0</v>
+        <v>1000.0</v>
       </c>
       <c r="O28" s="27" t="s">
         <v>103</v>
@@ -10511,7 +10511,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="39"/>
       <c r="K7" s="2" t="n">
-        <v>45218.0</v>
+        <v>45224.0</v>
       </c>
       <c r="L7" s="2" t="n">
         <v>45240.0</v>
@@ -10523,7 +10523,7 @@
         <v>45270.0</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>45231.0</v>
+        <v>45233.0</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>45236.0</v>
@@ -10646,7 +10646,7 @@
         <v>10.0</v>
       </c>
       <c r="I10" s="42" t="n">
-        <v>1000.0</v>
+        <v>900.0</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>103</v>
@@ -10654,21 +10654,21 @@
       <c r="K10" s="42" t="n">
         <v>0.0</v>
       </c>
-      <c r="L10" s="42" t="n">
-        <v>400.0</v>
-      </c>
+      <c r="L10" s="42"/>
       <c r="M10" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="N10" s="42"/>
+        <v>800.0</v>
+      </c>
+      <c r="N10" s="42" t="n">
+        <v>100.0</v>
+      </c>
       <c r="O10" s="42"/>
-      <c r="P10" s="42" t="n">
-        <v>400.0</v>
-      </c>
+      <c r="P10" s="42"/>
       <c r="Q10" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="R10" s="42"/>
+        <v>800.0</v>
+      </c>
+      <c r="R10" s="42" t="n">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="25" t="s">
@@ -10693,7 +10693,7 @@
         <v>10.0</v>
       </c>
       <c r="I11" s="42" t="n">
-        <v>900.0</v>
+        <v>1500.0</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>103</v>
@@ -10703,19 +10703,15 @@
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="N11" s="42" t="n">
-        <v>100.0</v>
-      </c>
+        <v>1500.0</v>
+      </c>
+      <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="R11" s="42" t="n">
-        <v>100.0</v>
-      </c>
+        <v>1500.0</v>
+      </c>
+      <c r="R11" s="42"/>
     </row>
     <row r="12">
       <c r="B12" s="25" t="s">
@@ -10725,7 +10721,7 @@
         <v>116</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>100</v>
@@ -10740,7 +10736,7 @@
         <v>10.0</v>
       </c>
       <c r="I12" s="42" t="n">
-        <v>1500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>103</v>
@@ -10748,15 +10744,19 @@
       <c r="K12" s="42" t="n">
         <v>0.0</v>
       </c>
-      <c r="L12" s="42"/>
+      <c r="L12" s="42" t="n">
+        <v>400.0</v>
+      </c>
       <c r="M12" s="42" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
+      <c r="P12" s="42" t="n">
+        <v>400.0</v>
+      </c>
       <c r="Q12" s="42" t="n">
-        <v>1500.0</v>
+        <v>600.0</v>
       </c>
       <c r="R12" s="42"/>
     </row>
